--- a/exceldata/orangehrm_cucumber.xlsx
+++ b/exceldata/orangehrm_cucumber.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\June_12th_selenium_training_aryaan\com.orangehrmcucumber99\exceldata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9B8625-1B47-490C-B027-5676C5062DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CE387577-6884-40A9-AA22-642FEEDB84AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="390" windowWidth="23310" windowHeight="13680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:P16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,14 +430,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,23 +445,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -473,7 +469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -495,15 +491,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,7 +519,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -541,7 +537,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -559,7 +555,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -579,7 +575,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -599,7 +595,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -622,19 +618,19 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,7 +649,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -668,7 +664,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -683,7 +679,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -702,7 +698,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -719,7 +715,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -739,15 +735,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -760,7 +756,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -773,21 +769,21 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
